--- a/dmn.tool/docs/DMN.xlsx
+++ b/dmn.tool/docs/DMN.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3EC120F3-0367-47C9-8D8D-6AB40EF8A1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="525" windowWidth="20760" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长阳铺#2主变投运前" sheetId="9" r:id="rId1"/>
     <sheet name="长阳铺#2主变投运后" sheetId="11" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L21"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>input</t>
   </si>
@@ -72,69 +74,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;=260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_长阳铺2台主变功率之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_民丰2台主变功率之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_长阳铺变下网（上网）的10%+湍宝线送宝庆（湍江）潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_长阳铺变下网（上网）的7%+吉永线送永丰（吉星）潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_长阳铺变下网（上网）的35%+湍宝线送宝庆（湍江）潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_长阳铺变下网（上网）的23%+吉永线送永丰（吉星）潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常方式</t>
+  </si>
+  <si>
+    <t>民丰任一台主变停运</t>
+  </si>
+  <si>
     <t>长阳铺任一台主变停运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_长阳铺2台主变功率之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_民丰2台主变功率之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_长阳铺变下网（上网）的10%+湍宝线送宝庆（湍江）潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_长阳铺变下网（上网）的7%+吉永线送永丰（吉星）潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_长阳铺变下网（上网）的35%+湍宝线送宝庆（湍江）潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_长阳铺变下网（上网）的23%+吉永线送永丰（吉星）潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string [正常方式, 民丰任一台主变停运, 长阳铺任一台主变停运]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -468,25 +478,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -574,21 +584,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -617,32 +627,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5">
+    <row r="2" spans="1:9" ht="60">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -665,7 +675,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>900</v>
@@ -674,10 +684,10 @@
         <v>1000</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>4</v>
@@ -686,12 +696,12 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>900</v>
@@ -704,12 +714,12 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="I6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>600</v>
@@ -724,13 +734,13 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/dmn.tool/docs/DMN.xlsx
+++ b/dmn.tool/docs/DMN.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3EC120F3-0367-47C9-8D8D-6AB40EF8A1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="525" windowWidth="20760" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="525" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="长阳铺#2主变投运前" sheetId="9" r:id="rId1"/>
-    <sheet name="长阳铺#2主变投运后" sheetId="11" r:id="rId2"/>
+    <sheet name="长阳铺#2主变投运后" sheetId="13" r:id="rId2"/>
+    <sheet name="其他控制要求" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:L21"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>input</t>
   </si>
@@ -30,9 +29,6 @@
     <t>output</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>double</t>
   </si>
   <si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;=260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T2_参数1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T2_长阳铺变下网（上网）的10%+湍宝线送宝庆（湍江）潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rule_T2_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,18 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T2_长阳铺变下网（上网）的7%+吉永线送永丰（吉星）潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_长阳铺变下网（上网）的35%+湍宝线送宝庆（湍江）潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_长阳铺变下网（上网）的23%+吉永线送永丰（吉星）潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常方式</t>
   </si>
   <si>
@@ -128,23 +104,104 @@
   </si>
   <si>
     <t>string [正常方式, 民丰任一台主变停运, 长阳铺任一台主变停运]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[正常方式、民丰任一台主变停运、长阳铺主变停运]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_湍宝线送宝庆潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_吉永线送永丰潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_限额1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_限额2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.1+T3_湍宝线送宝庆潮流&lt;=260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.07+T3_吉永线送永丰潮流&lt;=260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.35+T3_湍宝线送宝庆潮流&lt;=260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.23+T3_吉永线送永丰潮流&lt;=260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -182,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -205,7 +262,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,25 +551,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -510,71 +583,71 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1400</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1000</v>
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>950</v>
-      </c>
-      <c r="C6">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>950</v>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -584,35 +657,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="60.125" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="60.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -620,135 +794,120 @@
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="60">
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27">
       <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54" customHeight="1">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1">
-        <v>900</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>900</v>
-      </c>
-      <c r="C6">
-        <v>500</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>600</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
+  <mergeCells count="5">
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dmn.tool/docs/DMN.xlsx
+++ b/dmn.tool/docs/DMN.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>input</t>
   </si>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T3_参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T3_长阳铺变下网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +180,10 @@
   </si>
   <si>
     <t>T3_长阳铺变下网*0.23+T3_吉永线送永丰潮流&lt;=260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependency: T2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -269,6 +269,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -551,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -758,10 +761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -799,23 +802,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="27">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27">
@@ -842,20 +845,20 @@
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>31</v>
@@ -865,11 +868,11 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="H6" s="5" t="s">
         <v>32</v>
       </c>
@@ -888,10 +891,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>33</v>
@@ -900,6 +903,11 @@
     <row r="8" spans="1:8">
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/dmn.tool/docs/DMN.xlsx
+++ b/dmn.tool/docs/DMN.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>input</t>
   </si>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>dependency: T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -269,6 +273,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,7 +561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,7 +671,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -764,7 +771,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -834,30 +841,30 @@
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
+      <c r="E3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -868,11 +875,11 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="H6" s="5" t="s">
         <v>32</v>
       </c>

--- a/dmn.tool/docs/DMN.xlsx
+++ b/dmn.tool/docs/DMN.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="525" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="1560" yWindow="525" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="长阳铺#2主变投运前" sheetId="9" r:id="rId1"/>
     <sheet name="长阳铺#2主变投运后" sheetId="13" r:id="rId2"/>
-    <sheet name="其他控制要求" sheetId="11" r:id="rId3"/>
+    <sheet name="T3" sheetId="15" r:id="rId3"/>
+    <sheet name="长阳铺#2主变投运后其他控制要求" sheetId="16" r:id="rId4"/>
+    <sheet name="T5" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="75">
   <si>
     <t>input</t>
   </si>
@@ -44,150 +46,272 @@
     <t>Rule_T1_1</t>
   </si>
   <si>
+    <t>T1_民丰、长阳铺3台主变功率之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_民丰2台主变功率之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民丰任一台主变停运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳铺主变停运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_长阳铺2台主变功率之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_民丰2台主变功率之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常方式</t>
+  </si>
+  <si>
+    <t>民丰任一台主变停运</t>
+  </si>
+  <si>
+    <t>长阳铺任一台主变停运</t>
+  </si>
+  <si>
+    <t>string [正常方式, 民丰任一台主变停运, 长阳铺任一台主变停运]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[正常方式、民丰任一台主变停运、长阳铺主变停运]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_湍宝线送宝庆潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_吉永线送永丰潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_限额1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_限额2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependency: T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_越界结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Rule_T1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pmax越界告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rule_T1_3</t>
-  </si>
-  <si>
-    <t>T1_民丰、长阳铺3台主变功率之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1_民丰2台主变功率之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民丰任一台主变停运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长阳铺主变停运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_长阳铺2台主变功率之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_民丰2台主变功率之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常方式</t>
-  </si>
-  <si>
-    <t>民丰任一台主变停运</t>
-  </si>
-  <si>
-    <t>长阳铺任一台主变停运</t>
-  </si>
-  <si>
-    <t>string [正常方式, 民丰任一台主变停运, 长阳铺任一台主变停运]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[正常方式、民丰任一台主变停运、长阳铺主变停运]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=950</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T3_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T3_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_长阳铺变下网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_湍宝线送宝庆潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_吉永线送永丰潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_限额1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_限额2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_长阳铺变下网*0.1+T3_湍宝线送宝庆潮流&lt;=260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_长阳铺变下网*0.07+T3_吉永线送永丰潮流&lt;=260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_长阳铺变下网*0.35+T3_湍宝线送宝庆潮流&lt;=260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_长阳铺变下网*0.23+T3_吉永线送永丰潮流&lt;=260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dependency: T2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T1_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_越界结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[正常运行、Pmax越界告警]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.1+T3_湍宝线送宝庆潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.07+T3_吉永线送永丰潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.35+T3_湍宝线送宝庆潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.23+T3_吉永线送永丰潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4_越界结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[正常运行、越界告警]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越界告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependency: T2、T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5_越界结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependency: T2、T4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,11 +367,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,28 +388,46 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -561,7 +700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,98 +708,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="3" max="3" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -668,98 +876,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="60.125" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="3" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>22</v>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18"/>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -770,159 +1046,505 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="40.5" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="18.625" customWidth="1"/>
     <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="27">
       <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="27">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>44</v>
+      <c r="E3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>31</v>
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="H6" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="54" customHeight="1">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="3" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18"/>
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="3" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18"/>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dmn.tool/docs/DMN.xlsx
+++ b/dmn.tool/docs/DMN.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="525" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="1560" yWindow="525" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="长阳铺#2主变投运前" sheetId="9" r:id="rId1"/>
     <sheet name="长阳铺#2主变投运后" sheetId="13" r:id="rId2"/>
-    <sheet name="其他控制要求" sheetId="11" r:id="rId3"/>
+    <sheet name="T3" sheetId="15" r:id="rId3"/>
+    <sheet name="长阳铺#2主变投运后其他控制要求" sheetId="16" r:id="rId4"/>
+    <sheet name="T5" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="76">
   <si>
     <t>input</t>
   </si>
@@ -44,150 +46,276 @@
     <t>Rule_T1_1</t>
   </si>
   <si>
+    <t>T1_民丰、长阳铺3台主变功率之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_民丰2台主变功率之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民丰任一台主变停运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳铺主变停运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_长阳铺2台主变功率之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_民丰2台主变功率之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常方式</t>
+  </si>
+  <si>
+    <t>民丰任一台主变停运</t>
+  </si>
+  <si>
+    <t>长阳铺任一台主变停运</t>
+  </si>
+  <si>
+    <t>string [正常方式, 民丰任一台主变停运, 长阳铺任一台主变停运]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[正常方式、民丰任一台主变停运、长阳铺主变停运]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_湍宝线送宝庆潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_吉永线送永丰潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_限额1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_限额2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependency: T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_越界结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Rule_T1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pmax越界告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rule_T1_3</t>
-  </si>
-  <si>
-    <t>T1_民丰、长阳铺3台主变功率之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1_民丰2台主变功率之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民丰任一台主变停运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长阳铺主变停运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_长阳铺2台主变功率之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2_民丰2台主变功率之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常方式</t>
-  </si>
-  <si>
-    <t>民丰任一台主变停运</t>
-  </si>
-  <si>
-    <t>长阳铺任一台主变停运</t>
-  </si>
-  <si>
-    <t>string [正常方式, 民丰任一台主变停运, 长阳铺任一台主变停运]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[正常方式、民丰任一台主变停运、长阳铺主变停运]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=950</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T3_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T3_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_长阳铺变下网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_湍宝线送宝庆潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_吉永线送永丰潮流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_限额1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_限额2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_长阳铺变下网*0.1+T3_湍宝线送宝庆潮流&lt;=260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_长阳铺变下网*0.07+T3_吉永线送永丰潮流&lt;=260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_长阳铺变下网*0.35+T3_湍宝线送宝庆潮流&lt;=260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3_长阳铺变下网*0.23+T3_吉永线送永丰潮流&lt;=260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dependency: T2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T1_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_越界结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[正常运行、Pmax越界告警]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.1+T3_湍宝线送宝庆潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.07+T3_吉永线送永丰潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.35+T3_湍宝线送宝庆潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3_长阳铺变下网*0.23+T3_吉永线送永丰潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4_越界结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T4_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[正常运行、越界告警]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越界告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependency: T2、T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5_越界结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T5_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependency: T2、T4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,11 +371,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,27 +392,48 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,98 +715,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="5" max="5" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="21"/>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27">
+      <c r="A3" s="21"/>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
+      <c r="B10" s="17"/>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A1:A3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -668,98 +907,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="60.125" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="3" max="4" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="22"/>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A3" s="22"/>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A1:A3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -768,161 +1099,570 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="40.5" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27">
-      <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:9" ht="27">
+      <c r="A2" s="22"/>
+      <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="27">
+      <c r="A3" s="22"/>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="I6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="54" customHeight="1">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="H6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54" customHeight="1">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="3" max="4" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="22"/>
+      <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A3" s="22"/>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A1:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="3" max="4" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="22"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A3" s="22"/>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
